--- a/NformTester/NformTester/Keywordscripts/600.20.20.160_ConfiureActionAddShutDownActionUsingConfigureButton.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.160_ConfiureActionAddShutDownActionUsingConfigureButton.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3631,21 +3631,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ShutdownClients</t>
+  </si>
+  <si>
+    <t>"10.146.91.11"</t>
+  </si>
+  <si>
+    <t>;clear configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add shut down Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ShutdownClients</t>
-  </si>
-  <si>
-    <t>"10.146.91.11"</t>
-  </si>
-  <si>
-    <t>;clear configuration</t>
+    <t>"action-shutdown"</t>
+  </si>
+  <si>
+    <t>"nform testing"</t>
+  </si>
+  <si>
+    <t>"Shutdown"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;Add shut down Actions</t>
+    <t>"client test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3653,35 +3678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"action-shutdown"</t>
-  </si>
-  <si>
-    <t>"nform testing"</t>
-  </si>
-  <si>
-    <t>"Shutdown"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"client test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3691,6 +3687,10 @@
   </si>
   <si>
     <t>Count: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4647,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4780,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4836,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -4867,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -4896,7 +4896,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>306</v>
@@ -4925,7 +4925,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>310</v>
@@ -4937,7 +4937,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4958,7 +4958,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>310</v>
@@ -4970,7 +4970,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4987,7 +4987,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>310</v>
@@ -5074,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>370</v>
@@ -5086,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="5"/>
@@ -5105,7 +5105,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>370</v>
@@ -5117,7 +5117,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="5"/>
@@ -5194,25 +5194,25 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>377</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>810</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -5229,7 +5229,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>377</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>379</v>
@@ -5272,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5303,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="5"/>
@@ -5334,7 +5334,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5351,7 +5351,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>379</v>
@@ -5384,19 +5384,19 @@
         <v>377</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>810</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5411,7 +5411,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>377</v>
@@ -5436,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>370</v>
@@ -5461,7 +5461,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>370</v>
@@ -5486,7 +5486,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>310</v>
@@ -5511,7 +5511,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>306</v>
@@ -5536,7 +5536,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>756</v>
@@ -5559,7 +5559,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
@@ -5609,7 +5609,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>2</v>
@@ -5640,7 +5640,7 @@
         <v>56</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5767,7 +5767,7 @@
         <v>56</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
